--- a/Timekeeping/2024/12-24/LOTFI S 12-24.xlsx
+++ b/Timekeeping/2024/12-24/LOTFI S 12-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Timekeeping\12-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/095d5c38fd0987cc/RWA/1901/Eric's Billing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E26D4D-889C-4525-985D-900FE0EDFB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F6E26D4D-889C-4525-985D-900FE0EDFB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91A8C4C3-4FC9-4C58-A48F-3384CF09B3E3}"/>
   <bookViews>
-    <workbookView xWindow="1690" yWindow="2410" windowWidth="28800" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1289,7 +1289,7 @@
   <dimension ref="A1:GH81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2327,7 +2327,7 @@
         <v>78</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D9" s="72" t="s">
         <v>20</v>
@@ -2635,7 +2635,7 @@
         <v>73</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D12" s="79" t="s">
         <v>20</v>
